--- a/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_6.xlsx
+++ b/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_6.xlsx
@@ -483,76 +483,72 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>jaah_54</t>
+          <t>schubert-winterreise_120</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_132</t>
+          <t>schubert-winterreise_14</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.06153846153846154</v>
+        <v>0.2196969696969697</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>[['Bb:7', 'Eb', 'Bb:7', 'Eb']]</t>
+          <t>[['A#:min', 'F:maj/A', 'A#:min']]</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[['C:7', 'F:maj', 'C:7/A#', 'F:maj/A']]</t>
+          <t>[['D:min', 'A:maj', 'D:min']]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[(33.31, 47.63)]</t>
+          <t>[(15.32, 17.86)]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[(72.5, 86.12)]</t>
+          <t>[(10.56, 17.34)]</t>
         </is>
       </c>
       <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+      <c r="I2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_80</t>
+          <t>isophonics_215</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_14</t>
+          <t>isophonics_19</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.3311965811965812</v>
+        <v>0.1416666666666667</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>[['A:maj', 'D:min', 'A:maj', 'D:min', 'A:maj'], ['D:min', 'A:maj', 'D:min', 'A:maj', 'D:min']]</t>
+          <t>[['F:7', 'Bb', 'C']]</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[['A:maj', 'D:min', 'A:maj', 'D:min', 'A:maj'], ['D:min', 'A:maj', 'D:min', 'A:maj', 'D:min']]</t>
+          <t>[['F:7', 'Bb', 'C']]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[(1.24, 7.96), (2.64, 9.94)]</t>
+          <t>[(2.572176, 6.09)]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[(8.98, 20.7), (10.56, 23.76)]</t>
+          <t>[(9.297913, 12.780907)]</t>
         </is>
       </c>
       <c r="H3" t="inlineStr"/>
@@ -561,40 +557,40 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>isophonics_205</t>
+          <t>isophonics_35</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>isophonics_192</t>
+          <t>schubert-winterreise_214</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.06186174391201885</v>
+        <v>0.2266666666666667</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>[['C', 'E', 'A']]</t>
+          <t>[['G:7', 'C', 'E']]</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[['Eb', 'G', 'C']]</t>
+          <t>[['D:7', 'G:maj', 'B:maj/D#']]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[(46.529251, 52.798639)]</t>
+          <t>[(20.769931, 26.946439)]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[(134.983968, 138.583061)]</t>
+          <t>[(76.32, 84.1)]</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>spotify:track:389QX9Q1eUOEZ19vtzzI9O</t>
+          <t>spotify:track:1dxbAIfCASqv6jix2R1Taj</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -602,163 +598,159 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>jaah_54</t>
+          <t>jaah_39</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_111</t>
+          <t>jaah_43</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.06153846153846154</v>
+        <v>0.09377038486627527</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>[['Bb:7', 'Eb', 'Bb:7', 'Eb']]</t>
+          <t>[['Eb:7', 'Eb:7', 'Ab', 'Ab', 'Db']]</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[['D:7', 'G:maj', 'D:7/C', 'G:maj/B']]</t>
+          <t>[['Bb:7', 'Bb:7', 'Eb', 'Eb', 'Ab']]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[(33.31, 47.63)]</t>
+          <t>[(121.03, 126.19)]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[(66.1, 77.5)]</t>
+          <t>[(93.27, 102.97)]</t>
         </is>
       </c>
       <c r="H5" t="inlineStr"/>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+      <c r="I5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_59</t>
+          <t>schubert-winterreise_143</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_130</t>
+          <t>schubert-winterreise_164</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>0.1846153846153846</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>[['C:maj', 'B:(3,5,b9)/C', 'C:maj', 'F#:(3,b5,b9)/C', 'B:maj/C', 'C:maj', 'B:(3,5,b7,b9)', 'C:maj']]</t>
+          <t>[['F#:7/B', 'B:min', 'E:min/B', 'B:min']]</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[['C:maj', 'B:(3,5,b9)/C', 'C:maj', 'F#:(3,b5,b9)/C', 'B:maj/C', 'C:maj', 'B:(3,5,b7,b9)', 'C:maj']]</t>
+          <t>[['E:7', 'A:min', 'D:min', 'A:min']]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[(160.06, 164.46)]</t>
+          <t>[(23.14, 32.76)]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[(150.2, 154.94)]</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr"/>
-      <c r="I6" t="inlineStr"/>
+          <t>[(51.62, 63.9)]</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_58</t>
+          <t>isophonics_6</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_108</t>
+          <t>jaah_32</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.2666666666666667</v>
+        <v>0.2209443099273608</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>[['F:7', 'A#:maj/F', 'F:7', 'A#:maj/F']]</t>
+          <t>[['Bb', 'Eb:7', 'Bb', 'Eb:7', 'Bb']]</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[['F:7', 'A#:maj/F', 'F:7', 'A#:maj']]</t>
+          <t>[['G', 'C:7', 'G', 'C:7', 'G']]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[(83.76, 92.66)]</t>
+          <t>[(78.347, 83.598)]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[(85.16, 94.9)]</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
+          <t>[(170.09, 173.77)]</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr"/>
+      <c r="I7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_89</t>
+          <t>schubert-winterreise_58</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>isophonics_61</t>
+          <t>schubert-winterreise_80</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.1922196796338673</v>
+        <v>0.2153846153846154</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>[['C:min/G', 'G:min', 'D:7', 'G:min']]</t>
+          <t>[['A#:maj/F', 'F:7', 'A#:maj/F'], ['A:min', 'E:7/G#', 'A:min']]</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[['B:min/5', 'F#:min', 'C#:7', 'F#:min']]</t>
+          <t>[['D#:maj/A#', 'A#:7', 'D#:maj/A#'], ['D:min/A', 'A:7', 'D:min']]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[(2.98, 6.7)]</t>
+          <t>[(87.28, 92.66), (37.96, 44.8)]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[(23.632675, 27.452358)]</t>
+          <t>[(96.12, 103.44), (130.84, 135.98)]</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
@@ -766,35 +758,35 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>isophonics_127</t>
+          <t>isophonics_78</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>isophonics_128</t>
+          <t>isophonics_114</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0.2650375939849624</v>
+        <v>0.3079178885630499</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>[['D', 'G', 'D', 'G', 'A', 'D']]</t>
+          <t>[['A', 'D', 'A', 'E', 'D']]</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[['C', 'F', 'C', 'F', 'G', 'C']]</t>
+          <t>[['E', 'A', 'E', 'B', 'A']]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[(1.014823, 16.525575)]</t>
+          <t>[(99.445827, 107.363832)]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[(10.634761, 23.115487)]</t>
+          <t>[(6.726778, 16.30501)]</t>
         </is>
       </c>
       <c r="H9" t="inlineStr"/>
@@ -803,76 +795,76 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_175</t>
+          <t>schubert-winterreise_75</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>isophonics_233</t>
+          <t>schubert-winterreise_203</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0.1441176470588235</v>
+        <v>0.0945054945054945</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>[['A:min', 'E:7', 'A:min']]</t>
+          <t>[['F:min', 'F#/A#', 'F:min/C'], ['G:hdim7/A#', 'C:7', 'F:min']]</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:7', 'D:min']]</t>
+          <t>[['G:min', 'G#:maj/C', 'G:min'], ['A:hdim7/D#', 'D:7', 'G:min']]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[(17.12, 24.9)]</t>
+          <t>[(176.5, 178.78), (23.08, 29.9)]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[(36.711, 39.787)]</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr"/>
+          <t>[(45.4, 48.12), (98.02, 110.76)]</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr"/>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>isophonics_175</t>
+          <t>isophonics_217</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_134</t>
+          <t>isophonics_232</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.2859477124183006</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>[['F', 'C', 'F'], ['C', 'F', 'C']]</t>
+          <t>[['G', 'C', 'D', 'G', 'G']]</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[['F:maj', 'C:maj/G', 'F:maj/A'], ['C:maj/G', 'F:maj', 'C:maj/G']]</t>
+          <t>[['C', 'F', 'G', 'A', 'A']]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[(101.849092, 106.934263), (103.520929, 108.664149)]</t>
+          <t>[(16.608639, 26.921541)]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[(145.04, 147.86), (142.14, 146.8)]</t>
+          <t>[(23.725555, 38.772086)]</t>
         </is>
       </c>
       <c r="H11" t="inlineStr"/>
@@ -881,35 +873,35 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_18</t>
+          <t>schubert-winterreise_63</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_141</t>
+          <t>schubert-winterreise_10</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>1</v>
+        <v>0.08749999999999999</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>[['F:maj', 'C:maj', 'C:min', 'G:min/D', 'D:7', 'G:min', 'A#:maj', 'A#:min', 'C:maj', 'F:7/D#', 'A#:maj/D', 'F:maj/C', 'C:7', 'F:maj', 'F:maj', 'F:7', 'A#:maj', 'D:(3,5,b7,b9)/A#', 'G:min/A#', 'F:maj/C', 'C:maj']]</t>
+          <t>[['C:min', 'F:7/C', 'A#'], ['C/G', 'G:7', 'C']]</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[['F:maj', 'C:maj', 'C:min', 'G:min/D', 'D:7', 'G:min', 'A#:maj', 'A#:min', 'C:maj', 'F:7/D#', 'A#:maj/D', 'F:maj/C', 'C:7', 'F:maj', 'F:maj', 'F:7', 'A#:maj', 'D:(3,5,b7,b9)/A#', 'G:min/A#', 'F:maj/C', 'C:maj']]</t>
+          <t>[['C:min', 'F:7/A', 'A#:maj'], ['C:maj', 'G:7', 'C:maj']]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[(47.8, 98.98)]</t>
+          <t>[(40.44, 43.32), (253.84, 257.6)]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[(47.86, 95.84)]</t>
+          <t>[(37.2, 43.88), (0.8, 9.28)]</t>
         </is>
       </c>
       <c r="H12" t="inlineStr"/>
@@ -918,117 +910,113 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_171</t>
+          <t>schubert-winterreise_73</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_58</t>
+          <t>isophonics_149</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0.1652173913043478</v>
+        <v>0.3296703296703297</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>[['F#:min', 'C#:7', 'F#:min']]</t>
+          <t>[['G:maj/B', 'C:maj', 'G:maj/D']]</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[['A:min', 'E:7/G#', 'A:min']]</t>
+          <t>[['B', 'E', 'B']]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[(3.82, 6.46)]</t>
+          <t>[(65.2, 67.5)]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[(37.96, 44.8)]</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
+          <t>[(19.602494, 26.162131)]</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr"/>
+      <c r="I13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>jaah_27</t>
+          <t>jaah_67</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_198</t>
+          <t>schubert-winterreise_9</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0.2053571428571428</v>
+        <v>0.0817009077878643</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>[['A:7', 'D', 'D']]</t>
+          <t>[['C:7', 'F', 'F']]</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[['B:7/A', 'E:maj/G#', 'E:maj/B']]</t>
+          <t>[['C:7', 'F:maj', 'F:maj/A']]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[(9.82, 12.93)]</t>
+          <t>[(9.18, 12.7)]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[(216.28, 224.4)]</t>
+          <t>[(21.08, 23.68)]</t>
         </is>
       </c>
       <c r="H14" t="inlineStr"/>
-      <c r="I14" t="inlineStr"/>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>jaah_39</t>
+          <t>isophonics_136</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_84</t>
+          <t>isophonics_251</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0.09197651663405088</v>
+        <v>0.3353658536585366</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>[['Eb:7', 'Ab', 'Ab']]</t>
+          <t>[['D/5', 'A', 'D', 'A', 'D', 'A', 'D']]</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[['A#:7', 'D#:maj', 'D#:maj']]</t>
+          <t>[['G', 'D', 'G', 'D', 'G', 'D', 'G']]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[(34.65, 37.76)]</t>
+          <t>[(126.99, 135.953)]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[(64.58, 73.88)]</t>
+          <t>[(9.370997, 22.141972)]</t>
         </is>
       </c>
       <c r="H15" t="inlineStr"/>
@@ -1037,40 +1025,40 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_122</t>
+          <t>schubert-winterreise_71</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_63</t>
+          <t>schubert-winterreise_191</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0.06346153846153846</v>
+        <v>0.1712473572938689</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>[['A:7', 'D:maj', 'B:min'], ['B:min', 'F#:maj', 'B:min'], ['B:min/F#', 'F#:7', 'B:min'], ['D:maj/F#', 'A:7', 'D:maj'], ['B:min', 'E:min/B', 'B:min']]</t>
+          <t>[['C:min', 'G:7/D', 'C:min']]</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[['A#:7', 'D#', 'C:min'], ['C:min/G', 'G', 'C:min'], ['C:min/G', 'G:7', 'C:min'], ['D#/G', 'A#:7/F', 'D#/G'], ['C:min', 'F:min', 'C:min/G']]</t>
+          <t>[['B:min', 'F#:7/C#', 'B:min/D']]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[(38.24, 44.08), (13.12, 19.96), (80.2, 86.86), (36.4, 41.7), (26.2, 33.96)]</t>
+          <t>[(0.36, 7.14)]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[(38.62, 40.98), (14.62, 19.56), (25.8, 29.46), (43.32, 45.08), (9.6, 13.3)]</t>
+          <t>[(0.68, 2.98)]</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
@@ -1078,35 +1066,35 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>isophonics_156</t>
+          <t>jaah_21</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>isophonics_127</t>
+          <t>jaah_13</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>0.1418067226890756</v>
+        <v>0.0711590296495957</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>[['E', 'A', 'D'], ['E', 'A', 'A'], ['D', 'E', 'A'], ['A', 'D', 'A']]</t>
+          <t>[['Eb:7', 'Ab', 'Ab'], ['Ab:7', 'Db:7', 'Db:7']]</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>[['A', 'D', 'G'], ['A', 'D', 'D/5'], ['G', 'A', 'D'], ['D', 'G', 'D']]</t>
+          <t>[['Bb:7', 'Eb', 'Eb'], ['Eb:7', 'Ab:7', 'Ab:7']]</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>[(9.30541, 12.800013), (1.274255, 5.746892), (53.551034, 58.903233), (11.070127, 13.723731)]</t>
+          <t>[(47.0, 47.79), (19.56, 22.68)]</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>[(0.440395, 9.431879), (13.657911, 17.965212), (12.241493, 16.525575), (1.014823, 12.241493)]</t>
+          <t>[(7.87, 14.66), (21.49, 28.19)]</t>
         </is>
       </c>
       <c r="H17" t="inlineStr"/>

--- a/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_6.xlsx
+++ b/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_6.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,45 +436,50 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>similarity_range</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>track_1</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>track_2</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>sim_val</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_1</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_1</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_2</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link_track_1</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>link_track_2</t>
         </is>
@@ -483,622 +488,668 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_120</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_14</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0.2196969696969697</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[['A#:min', 'F:maj/A', 'A#:min']]</t>
-        </is>
+          <t>schubert-winterreise_73</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_172</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.4017857142857143</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:maj', 'D:min']]</t>
+          <t>[['G:maj/D', 'D:7', 'G:maj'], ['G:maj/B', 'C:maj', 'G:maj/D']]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[(15.32, 17.86)]</t>
+          <t>[['E:maj', 'B:7', 'E:maj'], ['E:maj/G#', 'A:maj', 'E:maj']]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[(10.56, 17.34)]</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr"/>
+          <t>[('0:01:06.920000', '0:01:08.180000'), ('0:01:05.200000', '0:01:07.500000')]</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>[('0:00:00.260000', '0:00:07.340000'), ('0:00:52.740000', '0:01:00.860000')]</t>
+        </is>
+      </c>
       <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>isophonics_215</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>isophonics_19</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0.1416666666666667</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[['F:7', 'Bb', 'C']]</t>
-        </is>
+          <t>schubert-winterreise_94</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>jaah_85</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.08684863523573201</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[['F:7', 'Bb', 'C']]</t>
+          <t>[['A#:7', 'D#:maj/A#', 'D#:min/A#']]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[(2.572176, 6.09)]</t>
+          <t>[['Ab:7', 'Db', 'Db:min']]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[(9.297913, 12.780907)]</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr"/>
-      <c r="I3" t="inlineStr"/>
+          <t>[('0:00:05.460000', '0:00:13.500000')]</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>[('0:00:36.660000', '0:00:38.430000')]</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>isophonics_35</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_214</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0.2266666666666667</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>[['G:7', 'C', 'E']]</t>
-        </is>
+          <t>isophonics_294</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_113</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.1428571428571428</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[['D:7', 'G:maj', 'B:maj/D#']]</t>
+          <t>[['G', 'C', 'G/3']]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[(20.769931, 26.946439)]</t>
+          <t>[['F:maj', 'A#:maj', 'F:maj']]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[(76.32, 84.1)]</t>
+          <t>[('0:00:22.020589', '0:00:24.598004')]</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>spotify:track:1dxbAIfCASqv6jix2R1Taj</t>
+          <t>[('0:02:03.220000', '0:02:06.880000')]</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>jaah_39</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>jaah_43</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0.09377038486627527</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>[['Eb:7', 'Eb:7', 'Ab', 'Ab', 'Db']]</t>
-        </is>
+          <t>jaah_83</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_40</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.2089285714285714</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[['Bb:7', 'Bb:7', 'Eb', 'Eb', 'Ab']]</t>
+          <t>[['D:7', 'G', 'G'], ['A:7', 'D:7', 'G']]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[(121.03, 126.19)]</t>
+          <t>[['A:7/G', 'D:maj/F#', 'D:maj/A'], ['E:7/G#', 'A:7/G', 'D:maj/F#']]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[(93.27, 102.97)]</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr"/>
+          <t>[('0:00:06.380000', '0:00:09.890000'), ('0:00:26.120000', '0:00:29.620000')]</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>[('0:03:44.580000', '0:03:52.160000'), ('0:00:56.920000', '0:01:03.560000')]</t>
+        </is>
+      </c>
       <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_143</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_164</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0.1846153846153846</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>[['F#:7/B', 'B:min', 'E:min/B', 'B:min']]</t>
-        </is>
+          <t>isophonics_268</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>isophonics_59</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.07900136798905609</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[['E:7', 'A:min', 'D:min', 'A:min']]</t>
+          <t>[['A', 'A', 'A']]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[(23.14, 32.76)]</t>
+          <t>[['G:maj(*1)/5', 'G', 'G']]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[(51.62, 63.9)]</t>
+          <t>[('0:00:46.365011', '0:00:53.946326')]</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+          <t>[('0:00:10.454596', '0:00:24.259614')]</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
+          <t>spotify:track:7DD7eSuYSC5xk2ArU62esN</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>isophonics_6</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>jaah_32</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0.2209443099273608</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>[['Bb', 'Eb:7', 'Bb', 'Eb:7', 'Bb']]</t>
-        </is>
+          <t>isophonics_159</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>isophonics_50</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0.21875</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[['G', 'C:7', 'G', 'C:7', 'G']]</t>
+          <t>[['D/5', 'A', 'D'], ['A', 'D', 'A/3']]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[(78.347, 83.598)]</t>
+          <t>[['C', 'G', 'C'], ['G', 'C', 'G']]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[(170.09, 173.77)]</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr"/>
+          <t>[('0:00:12.743000', '0:00:16.216000'), ('0:00:13.527000', '0:00:17.058000')]</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>[('0:00:58.300068', '0:01:03.443287'), ('0:00:37.936167', '0:00:42.951678')]</t>
+        </is>
+      </c>
       <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_58</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_80</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0.2153846153846154</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>[['A#:maj/F', 'F:7', 'A#:maj/F'], ['A:min', 'E:7/G#', 'A:min']]</t>
-        </is>
+          <t>schubert-winterreise_113</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>isophonics_101</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0.4666666666666667</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[['D#:maj/A#', 'A#:7', 'D#:maj/A#'], ['D:min/A', 'A:7', 'D:min']]</t>
+          <t>[['F:maj', 'A#:maj', 'F:maj', 'A#:maj']]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[(87.28, 92.66), (37.96, 44.8)]</t>
+          <t>[['C#', 'F#/5', 'C#', 'F#/5']]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[(96.12, 103.44), (130.84, 135.98)]</t>
+          <t>[('0:02:03.220000', '0:02:07.180000')]</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr"/>
+          <t>[('0:00:31.469410', '0:02:07.006105')]</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>isophonics_78</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>isophonics_114</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>0.3079178885630499</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>[['A', 'D', 'A', 'E', 'D']]</t>
-        </is>
+          <t>isophonics_136</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_183</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0.4487804878048781</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[['E', 'A', 'E', 'B', 'A']]</t>
+          <t>[['A', 'D/5', 'A', 'D/5']]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[(99.445827, 107.363832)]</t>
+          <t>[['D:maj/A', 'G:maj', 'D:maj/A', 'G:maj/B']]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[(6.726778, 16.30501)]</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr"/>
+          <t>[('0:00:00.939000', '0:00:04.875000')]</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>[('0:02:08.540000', '0:02:13.900000')]</t>
+        </is>
+      </c>
       <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_75</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_203</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>0.0945054945054945</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>[['F:min', 'F#/A#', 'F:min/C'], ['G:hdim7/A#', 'C:7', 'F:min']]</t>
-        </is>
+          <t>schubert-winterreise_183</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>isophonics_31</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0.3789473684210526</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[['G:min', 'G#:maj/C', 'G:min'], ['A:hdim7/D#', 'D:7', 'G:min']]</t>
+          <t>[['G:maj', 'D:maj/A', 'G:maj/B'], ['D:maj/A', 'G:maj', 'D:maj/A']]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[(176.5, 178.78), (23.08, 29.9)]</t>
+          <t>[['C', 'G', 'C'], ['G', 'C', 'G']]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[(45.4, 48.12), (98.02, 110.76)]</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr"/>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>[('0:02:11.140000', '0:02:13.900000'), ('0:02:08.540000', '0:02:12.840000')]</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>[('0:00:13.336043', '0:00:26.115071'), ('0:00:17.581738', '0:00:30.271443')]</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>isophonics_217</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>isophonics_232</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>0.2859477124183006</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>[['G', 'C', 'D', 'G', 'G']]</t>
-        </is>
+          <t>schubert-winterreise_171</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_200</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0.421195652173913</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[['C', 'F', 'G', 'A', 'A']]</t>
+          <t>[['C#:7', 'F#:maj', 'F#:maj/A#', 'C#:7', 'F#:maj']]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[(16.608639, 26.921541)]</t>
+          <t>[['B:7/A', 'E:maj/G#', 'E:maj/B', 'B:7', 'E:maj/G#']]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[(23.725555, 38.772086)]</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr"/>
-      <c r="I11" t="inlineStr"/>
+          <t>[('0:00:20.420000', '0:00:24.160000')]</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>[('0:03:46.020000', '0:04:01.060000')]</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_63</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_10</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>0.08749999999999999</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>[['C:min', 'F:7/C', 'A#'], ['C/G', 'G:7', 'C']]</t>
-        </is>
+          <t>schubert-winterreise_118</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_152</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>1</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[['C:min', 'F:7/A', 'A#:maj'], ['C:maj', 'G:7', 'C:maj']]</t>
+          <t>[['A:min', 'B:hdim7/D', 'E:7', 'A:min', 'A:min', 'B:hdim7/D', 'E:7', 'A:min', 'G#:dim7', 'A:min', 'G#:dim7', 'E:maj/B', 'A:min/C', 'G:maj/B', 'F:maj/A', 'C:maj/G', 'F:maj', 'C:maj/G', 'G:7', 'C:maj', 'F:maj/A', 'E:min/B', 'B:7', 'E:min', 'D#:dim7/F#', 'E:min/G', 'E:(3,5,b7,b9)/G#', 'A:min', 'A:(3,5,b7,b9)', 'D:min', 'A:min/E', 'E:(3,5,b7,b9)', 'G#:dim7', 'B:hdim7/D', 'G#:dim7', 'B:hdim7/D', 'E:(3,5,b7,b9)', 'A:min', 'A:(3,5,b7,b9)/C#', 'D:min', 'A:min/E', 'E:(3,5,b7,b9)', 'A:min']]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[(40.44, 43.32), (253.84, 257.6)]</t>
+          <t>[['A:min', 'B:hdim7/D', 'E:7', 'A:min', 'A:min', 'B:hdim7/D', 'E:7', 'A:min', 'G#:dim7', 'A:min', 'G#:dim7', 'E:maj/B', 'A:min/C', 'G:maj/B', 'F:maj/A', 'C:maj/G', 'F:maj', 'C:maj/G', 'G:7', 'C:maj', 'F:maj/A', 'E:min/B', 'B:7', 'E:min', 'D#:dim7/F#', 'E:min/G', 'E:(3,5,b7,b9)/G#', 'A:min', 'A:(3,5,b7,b9)', 'D:min', 'A:min/E', 'E:(3,5,b7,b9)', 'G#:dim7', 'B:hdim7/D', 'G#:dim7', 'B:hdim7/D', 'E:(3,5,b7,b9)', 'A:min', 'A:(3,5,b7,b9)/C#', 'D:min', 'A:min/E', 'E:(3,5,b7,b9)', 'A:min']]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[(37.2, 43.88), (0.8, 9.28)]</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr"/>
-      <c r="I12" t="inlineStr"/>
+          <t>[('0:00:11.060000', '0:01:06.820000')]</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>[('0:00:11', '0:01:06.820000')]</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_73</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>isophonics_149</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>0.3296703296703297</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>[['G:maj/B', 'C:maj', 'G:maj/D']]</t>
-        </is>
+          <t>schubert-winterreise_149</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_5</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>1</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[['B', 'E', 'B']]</t>
+          <t>[['A:min', 'B:hdim7/D', 'E:7', 'A:min', 'A:min', 'B:hdim7/D', 'E:7', 'A:min', 'G#:dim7', 'A:min', 'G#:dim7', 'E:maj/B', 'A:min/C', 'G:maj/B', 'F:maj/A', 'C:maj/G', 'F:maj', 'C:maj/G', 'G:7', 'C:maj', 'F:maj/A', 'E:min/B', 'B:7', 'E:min', 'D#:dim7/F#', 'E:min/G', 'E:(3,5,b7,b9)/G#', 'A:min', 'A:(3,5,b7,b9)', 'D:min', 'A:min/E', 'E:(3,5,b7,b9)', 'G#:dim7', 'B:hdim7/D', 'G#:dim7', 'B:hdim7/D', 'E:(3,5,b7,b9)', 'A:min', 'A:(3,5,b7,b9)/C#', 'D:min', 'A:min/E', 'E:(3,5,b7,b9)', 'A:min']]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[(65.2, 67.5)]</t>
+          <t>[['A:min', 'B:hdim7/D', 'E:7', 'A:min', 'A:min', 'B:hdim7/D', 'E:7', 'A:min', 'G#:dim7', 'A:min', 'G#:dim7', 'E:maj/B', 'A:min/C', 'G:maj/B', 'F:maj/A', 'C:maj/G', 'F:maj', 'C:maj/G', 'G:7', 'C:maj', 'F:maj/A', 'E:min/B', 'B:7', 'E:min', 'D#:dim7/F#', 'E:min/G', 'E:(3,5,b7,b9)/G#', 'A:min', 'A:(3,5,b7,b9)', 'D:min', 'A:min/E', 'E:(3,5,b7,b9)', 'G#:dim7', 'B:hdim7/D', 'G#:dim7', 'B:hdim7/D', 'E:(3,5,b7,b9)', 'A:min', 'A:(3,5,b7,b9)/C#', 'D:min', 'A:min/E', 'E:(3,5,b7,b9)', 'A:min']]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[(19.602494, 26.162131)]</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr"/>
-      <c r="I13" t="inlineStr"/>
+          <t>[('0:00:10.560000', '0:01:09.420000')]</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>[('0:00:10.940000', '0:01:05.780000')]</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>jaah_67</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_9</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>0.0817009077878643</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>[['C:7', 'F', 'F']]</t>
-        </is>
+          <t>schubert-winterreise_101</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_87</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>1</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[['C:7', 'F:maj', 'F:maj/A']]</t>
+          <t>[['B:min', 'F#:7/B', 'F#:(3,5,b7,b9)/B', 'B:min', 'F#:(3,5,b7,b9)/B', 'B:min']]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[(9.18, 12.7)]</t>
+          <t>[['A#:min', 'F:7/A#', 'F:(3,5,b7,b9)/A#', 'A#:min', 'F:(3,5,b7,b9)/A#', 'A#:min']]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[(21.08, 23.68)]</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr"/>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+          <t>[('0:00:13.020000', '0:00:45.300000')]</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>[('0:00:10.700000', '0:00:35.520000')]</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>isophonics_136</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>isophonics_251</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>0.3353658536585366</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>[['D/5', 'A', 'D', 'A', 'D', 'A', 'D']]</t>
-        </is>
+          <t>schubert-winterreise_214</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_53</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>0.7083333333333333</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[['G', 'D', 'G', 'D', 'G', 'D', 'G']]</t>
+          <t>[['D:7', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[(126.99, 135.953)]</t>
+          <t>[['B:7', 'E:maj', 'B:7', 'E:maj', 'B:7', 'E:maj']]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[(9.370997, 22.141972)]</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr"/>
+          <t>[('0:00:39.020000', '0:00:57.200000')]</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>[('0:00:15.260000', '0:00:45.460000')]</t>
+        </is>
+      </c>
       <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_71</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_191</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>0.1712473572938689</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>[['C:min', 'G:7/D', 'C:min']]</t>
-        </is>
+          <t>schubert-winterreise_150</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_139</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[['B:min', 'F#:7/C#', 'B:min/D']]</t>
+          <t>[['A:maj', 'D:min', 'A:maj', 'D:min', 'A:maj', 'D:min', 'A#:maj', 'A#:(3,#5,7)/A', 'G:min', 'G:hdim7/F', 'C:7/E', 'C:maj', 'F:maj']]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[(0.36, 7.14)]</t>
+          <t>[['A#:maj', 'D#:min', 'A#:maj', 'D#:min', 'A#:maj', 'D#:min', 'B:maj', 'B:(3,#5,7)/A#', 'G#:min', 'G#:hdim7/F#', 'C#:7/F', 'C#:maj', 'F#:maj']]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[(0.68, 2.98)]</t>
+          <t>[('0:00:00.780000', '0:00:16.040000')]</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+          <t>[('0:00:00.660000', '0:00:13.920000')]</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>jaah_21</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>jaah_13</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>0.0711590296495957</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>[['Eb:7', 'Ab', 'Ab'], ['Ab:7', 'Db:7', 'Db:7']]</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>[['Bb:7', 'Eb', 'Eb'], ['Eb:7', 'Ab:7', 'Ab:7']]</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>[(47.0, 47.79), (19.56, 22.68)]</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>[(7.87, 14.66), (21.49, 28.19)]</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr"/>
-      <c r="I17" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
